--- a/java/SpringCloud.xlsx
+++ b/java/SpringCloud.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="安装" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="eureka" sheetId="2" r:id="rId2"/>
+    <sheet name="ribbon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>SpringCloud分布式系统</t>
   </si>
@@ -51,6 +51,35 @@
   </si>
   <si>
     <t>关键知识：</t>
+  </si>
+  <si>
+    <t>eureka尤里卡</t>
+  </si>
+  <si>
+    <t>百度搜索</t>
+  </si>
+  <si>
+    <t>spring-cloud-starter-eureka</t>
+  </si>
+  <si>
+    <t>负载均衡器:接口自动选服务器空间足的运行，从而接口响应时间快</t>
+  </si>
+  <si>
+    <t>负载均衡器</t>
+  </si>
+  <si>
+    <t>ribbon     通过微服务名访问</t>
+  </si>
+  <si>
+    <t>Feign      通过接口与注解访问
+@FeignClient(value="微服务名")
+@EnableFeignClients(basePackages = {"com.core"})</t>
+  </si>
+  <si>
+    <t>负载均衡软件</t>
+  </si>
+  <si>
+    <t>Nginx, Lvs</t>
   </si>
 </sst>
 </file>
@@ -672,12 +701,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1157,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1176,24 +1214,24 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" ht="43.2" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1224,7 +1262,7 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId2" display="https://springcloud.cc/spring-cloud-dalston.html"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://springcloud.cc/spring-cloud-dalston.html" tooltip="https://springcloud.cc/spring-cloud-dalston.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1236,14 +1274,39 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1253,14 +1316,55 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="43.2" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/java/SpringCloud.xlsx
+++ b/java/SpringCloud.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SpringCloud分布式系统</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>关键知识：</t>
+  </si>
+  <si>
+    <t>SpringBoot 应用程序启动时，排除 jdbc 的自动装配机制</t>
+  </si>
+  <si>
+    <t>@SpringBootApplication(exclude= DataSourceAutoConfiguration.class)</t>
   </si>
   <si>
     <t>eureka尤里卡</t>
@@ -701,7 +707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +730,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1193,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1254,6 +1263,14 @@
     <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1288,16 +1305,16 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -1330,22 +1347,22 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1354,10 +1371,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
